--- a/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C513DA17-BB29-4022-966C-32ED650B799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C654BFBA-5A4D-4F08-921D-97AA29DD8D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,70 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/Sprite/TeamEdit/维克多角色头像.png</t>
+  </si>
+  <si>
+    <t>portraitBattleMenuPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗面板头像路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameBattleMenuPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗面板角色名路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Battle/指令名牌 维克多.png</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Battle/指令名牌 维多利亚.png</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Battle/维克多指令面板头像.png</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Battle/维多利亚指令面板头像.png</t>
+  </si>
+  <si>
+    <t>skillNameList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vectoria1,Vectoria2,Vectoria3,Vectoria4,Vectoria5,Vectoria6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniqueSkillName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必杀技名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VectoriaUniqueSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VectorSkill1,VectorSkill2,VectorSkill3,VectorSkill4,VectorSkill5,VectorSkill6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VectorUniqueSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -471,10 +535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -482,9 +546,10 @@
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,10 +559,20 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,10 +582,20 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,10 +605,20 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -533,8 +628,20 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -544,8 +651,20 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -555,8 +674,14 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -566,8 +691,14 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -577,8 +708,14 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -588,8 +725,14 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -598,6 +741,12 @@
       </c>
       <c r="C10" t="s">
         <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C654BFBA-5A4D-4F08-921D-97AA29DD8D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A081A68-D693-43F7-9855-216BBC289CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,76 @@
   <si>
     <t>VectorUniqueSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurtRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击乘率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击乘率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entityObjPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Obj/Spine/维克多Spine.prefab</t>
   </si>
 </sst>
 </file>
@@ -535,10 +605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,10 +616,10 @@
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,13 +636,34 @@
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,13 +680,34 @@
         <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,13 +724,34 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -634,14 +767,35 @@
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="I4">
+        <v>7200</v>
+      </c>
+      <c r="J4">
+        <v>1450</v>
+      </c>
+      <c r="K4">
+        <v>1.2</v>
+      </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>0.9</v>
+      </c>
+      <c r="N4">
+        <v>72</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -657,14 +811,35 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="I5">
+        <v>4200</v>
+      </c>
+      <c r="J5">
+        <v>2610</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>0.8</v>
+      </c>
+      <c r="N5">
+        <v>60</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -680,8 +855,29 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6">
+        <v>4200</v>
+      </c>
+      <c r="J6">
+        <v>2610</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>0.8</v>
+      </c>
+      <c r="N6">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -697,8 +893,29 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7">
+        <v>4200</v>
+      </c>
+      <c r="J7">
+        <v>2610</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>0.8</v>
+      </c>
+      <c r="N7">
+        <v>60</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -714,8 +931,29 @@
       <c r="E8" t="s">
         <v>33</v>
       </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8">
+        <v>4200</v>
+      </c>
+      <c r="J8">
+        <v>2610</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>0.8</v>
+      </c>
+      <c r="N8">
+        <v>60</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -731,8 +969,29 @@
       <c r="E9" t="s">
         <v>33</v>
       </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <v>4200</v>
+      </c>
+      <c r="J9">
+        <v>2610</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>0.8</v>
+      </c>
+      <c r="N9">
+        <v>60</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -747,6 +1006,27 @@
       </c>
       <c r="E10" t="s">
         <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10">
+        <v>4200</v>
+      </c>
+      <c r="J10">
+        <v>2610</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>0.8</v>
+      </c>
+      <c r="N10">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A081A68-D693-43F7-9855-216BBC289CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69FAE8F-FA0D-4AFD-9EAF-0D551EFCEDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vectoria1,Vectoria2,Vectoria3,Vectoria4,Vectoria5,Vectoria6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uniqueSkillName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,18 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VectoriaUniqueSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VectorSkill1,VectorSkill2,VectorSkill3,VectorSkill4,VectorSkill5,VectorSkill6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VectorUniqueSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,6 +239,22 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/Obj/Spine/维克多Spine.prefab</t>
+  </si>
+  <si>
+    <t>星光,失却的激情,荒芜星原,颓废的智慧,虚谬,循此苦旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ad Astra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击架势,掩护,灼烧印记,不死花,绝境的火焰,绽放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷惘燃烬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,31 +636,31 @@
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -680,31 +680,31 @@
         <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -733,22 +733,22 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -768,13 +768,13 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I4">
         <v>7200</v>
@@ -812,13 +812,13 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I5">
         <v>4200</v>
@@ -856,7 +856,7 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I6">
         <v>4200</v>
@@ -894,7 +894,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I7">
         <v>4200</v>
@@ -932,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I8">
         <v>4200</v>
@@ -970,7 +970,7 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I9">
         <v>4200</v>
@@ -1008,7 +1008,7 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I10">
         <v>4200</v>

--- a/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69FAE8F-FA0D-4AFD-9EAF-0D551EFCEDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D4D31E-CE5D-4567-ABF4-6A6B46919EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,62 +59,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AddressableAssets/Sprite/CharacterSelect/维克多角色头像.png</t>
   </si>
   <si>
     <t>Assets/AddressableAssets/Sprite/CharacterSelect/维多利亚角色头像.png</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Sprite/CharacterSelect/角色1.png</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Sprite/CharacterSelect/角色3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Sprite/CharacterSelect/角色2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Sprite/CharacterSelect/角色4.png</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Sprite/CharacterSelect/角色5.png</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Sprite/TeamEdit/1头像.png</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Sprite/TeamEdit/2头像.png</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Sprite/TeamEdit/3头像.png</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Sprite/TeamEdit/4头像 .png</t>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Sprite/TeamEdit/5头像.png</t>
   </si>
   <si>
     <t>Assets/AddressableAssets/Sprite/TeamEdit/维多利亚角色头像.png</t>
@@ -605,10 +553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -630,37 +578,37 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -674,37 +622,37 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -727,28 +675,28 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -756,25 +704,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I4">
         <v>7200</v>
@@ -800,25 +748,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I5">
         <v>4200</v>
@@ -836,197 +784,7 @@
         <v>0.8</v>
       </c>
       <c r="N5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6">
-        <v>4200</v>
-      </c>
-      <c r="J6">
-        <v>2610</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>0.8</v>
-      </c>
-      <c r="N6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7">
-        <v>4200</v>
-      </c>
-      <c r="J7">
-        <v>2610</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7">
-        <v>0.8</v>
-      </c>
-      <c r="N7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8">
-        <v>4200</v>
-      </c>
-      <c r="J8">
-        <v>2610</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <v>0.8</v>
-      </c>
-      <c r="N8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9">
-        <v>4200</v>
-      </c>
-      <c r="J9">
-        <v>2610</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <v>0.8</v>
-      </c>
-      <c r="N9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10">
-        <v>4200</v>
-      </c>
-      <c r="J10">
-        <v>2610</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>0.8</v>
-      </c>
-      <c r="N10">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D4D31E-CE5D-4567-ABF4-6A6B46919EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC8343A-EEA6-4969-8A64-BD20CED37711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC8343A-EEA6-4969-8A64-BD20CED37711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D1BC8E-CFBE-470B-993B-AAC3CDC392D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
     <sheet name="Character" sheetId="1" r:id="rId2"/>
+    <sheet name="弃用角色（不参与配置）" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,10 +554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,53 +744,113 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5">
-        <v>4200</v>
-      </c>
-      <c r="J5">
-        <v>2610</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5">
-        <v>0.8</v>
-      </c>
-      <c r="N5">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EC947E-A6E2-4DE2-A109-E930E2916B78}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2">
+        <v>4200</v>
+      </c>
+      <c r="J2">
+        <v>2610</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>0.8</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Character.xlsx
@@ -8,21 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D1BC8E-CFBE-470B-993B-AAC3CDC392D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4053FCD1-6802-4418-A371-96881571409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
     <sheet name="Character" sheetId="1" r:id="rId2"/>
-    <sheet name="弃用角色（不参与配置）" sheetId="3" r:id="rId3"/>
+    <sheet name="CharacterVoice" sheetId="4" r:id="rId3"/>
+    <sheet name="CharacterArchive" sheetId="5" r:id="rId4"/>
+    <sheet name="弃用角色（不参与配置）" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="146">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +216,369 @@
   </si>
   <si>
     <t>迷惘燃烬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PV旁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交谈1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交谈2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交谈3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初次见面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历战后解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感度1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感度2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感度3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对虚谬空洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必杀技1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必杀技2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗胜利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法战斗2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警察时装解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对维多利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对梅比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对罗亚德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voiceText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾经的家人，曾经的我，基本上都忘干净了。只剩些琐碎的记忆……而我，会尽力记住这些的……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗅嗅……还有多久开饭啊，我已经饿得受不了了……</t>
+  </si>
+  <si>
+    <t>嗯……虽然搞不清是什么状况！但是看样子未来要一起生活一段时间了！\n维克多，是这么念的，对吧？既然答应了你，从现在开始，我将保护你的安全。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疼……！</t>
+  </si>
+  <si>
+    <t>受伤了吗？！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会让你得逞！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别惹我生气……！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈啊——！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死我…只是徒劳的………</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体……动不了了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦哦来得正好！要不要听我弹吉他听？诶，不要？呜……</t>
+  </si>
+  <si>
+    <t>呼……我战斗起来也越来越像模像样了吧！诶，还差得远？呜……好吧，但是那天绝对不会太远的！</t>
+  </si>
+  <si>
+    <t>人们的善意绝对不该被辜负……！我也明白善不一定有善报，恶者也未必会遭报应。\n所以，我更应该用自己的行动去维护这个想法。</t>
+  </si>
+  <si>
+    <t>信任是相互的，你信任我，我也会信任你。话说回来，一起玩游戏吗？</t>
+  </si>
+  <si>
+    <t>我不想成为人类啦，现在挺好的！愿望的话……\n要是我也能画我喜欢的漫画，创作摇滚……\n太难了哇，还是先从学会弹吉他开始吧？</t>
+  </si>
+  <si>
+    <t>那就是，幕后黑手吗？一定要将其消灭掉，不能再有更多受害者了。</t>
+  </si>
+  <si>
+    <t>你不会改变你的想法……但是我也不打算让步！</t>
+  </si>
+  <si>
+    <t>此剑所缠的赤炎，将会燃尽我所有的迷惘……！</t>
+  </si>
+  <si>
+    <t>哈~啊，一出门就遇到这种事了呢。</t>
+  </si>
+  <si>
+    <t>请你放弃 ！你是打不赢我的哦。</t>
+  </si>
+  <si>
+    <t>话说回来，打完一架后我多少有点饿了，也是时候该吃饭了吧？不行吗？呜……</t>
+  </si>
+  <si>
+    <t>燃烧起来吧……</t>
+  </si>
+  <si>
+    <t>呼噜噜噜……早上好，维多利亚。……嗯？维多利亚、维多利亚？\n睡着了啊，还抱着我的尾巴。那我也睡个回笼觉好了……</t>
+  </si>
+  <si>
+    <t>黑路撒冷里居然会有这么可爱的人在吗……！？诶干嘛踢我啊维多利亚，啊啊啊，别、别掐我 鼻子——！！</t>
+  </si>
+  <si>
+    <t>……心情很复杂呢，我总觉得，他或许对我说过一些真心话，但是总得来说他还是欺骗了所有人……</t>
+  </si>
+  <si>
+    <t>被浓雾裹挟的都市，喧嚣的日常。\n在这里度过的每一天深深刻入我的记忆之中。\n但眼中所映照的这个世界，对我来说还是有些无法理解啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维多利亚不喜欢运动……嗯？我吗？滑板，城市跑酷之类的我都挺喜欢的哦，也因为这个认识了很多朋友。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈？！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诶？想保护别人的想法就是一种爱？嗯……那我，爱着维多利亚……？好像也不是……</t>
+  </si>
+  <si>
+    <t>“警察！不许动，举起手来！！”\n……开玩笑的~那么，这身怎么样？是不是很有维护正义的感觉？！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来十分和善的人，维多利亚的朋友，他戴着的眼镜，我有点好奇啊，人类戴着这个东西还看得清楚吗？</t>
+  </si>
+  <si>
+    <t>archiveName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archiveText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色档案01</t>
+  </si>
+  <si>
+    <t>角色档案02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色档案03</t>
+  </si>
+  <si>
+    <t>角色档案04</t>
+  </si>
+  <si>
+    <t>身高：200cm\n体重149kg\n嗓门很大又热爱运动的人，但是偶尔也会思考些很有深度的问题，间歇性富有忧郁惆怅的气质。你从他身上感受到了一种太阳般的温暖氛围——以及深藏在那背后的，深沉且黑暗的冲动。</t>
+  </si>
+  <si>
+    <t>维克多在“新哥伦比亚研究所”中诞生后，被附近的快餐店老板捡走，他的实际年龄或许不超过六个月……无人得知他为何长成了这般模样……但是根据维多利亚的假说，实验动物与死者的怨恨被“虚谬空洞”的力量赋予了实体，才使他得到了生命——也就是说，维克多即是我们所熟知的，“龋齿”……</t>
+  </si>
+  <si>
+    <t>教授购置了不计其数的人类和动物用于她的实验……这些生命临终前留下的诅咒与怨恨，原本只是逝者细微的亡语。却因为虚谬空洞的力量得到了实体，那是他们怨恨的火焰……维克多本应继承他们的怨恨，用火焰烧尽一切迫害过他们的生命。然而在杰森的教化下，维克多放弃了怨恨的道路。他将会用自己的力量阻止更多受害者的出现，哪怕将自己的生命也燃烧殆尽……</t>
+  </si>
+  <si>
+    <t>维克多最爱吃的食物是汉堡，最喜欢的运动是跑酷。他一天差不多要吃五顿饭才能吃饱，这让维多利亚感到苦不堪言……你经常能在“戴安”餐厅看到二人，以及维克多身旁垒成小山的空碟子堆……</t>
+  </si>
+  <si>
+    <t>catalogVoiceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalogArchiveList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>语音列表(角色图鉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案列表(角色图鉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterArchive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterVoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idlePortraitPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认立绘路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/立绘美术资源/狗子立绘/狗子 (1).png</t>
+  </si>
+  <si>
+    <t>voiceDisplayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfxKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音显示的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效配置key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警察时装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对圣骸之春</t>
+  </si>
+  <si>
+    <t>-导演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-梅比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-维多利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-罗亚德</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +586,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +603,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -254,9 +638,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -532,17 +928,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -554,21 +960,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="5" width="9.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,37 +989,46 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,37 +1042,46 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -676,31 +1101,40 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -714,34 +1148,43 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>7200</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1450</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.2</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>50</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.9</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>72</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -752,16 +1195,601 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6743C3FC-CDE3-4C27-906A-60BC553284BC}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2616A8BB-CACA-4503-9C72-72961A272C2E}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E13:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EC947E-A6E2-4DE2-A109-E930E2916B78}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +1833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
